--- a/datos/rain_df.xlsx
+++ b/datos/rain_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>2022</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>2028</t>
+  </si>
+  <si>
+    <t>media</t>
   </si>
   <si>
     <t>Ene</t>
@@ -428,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,317 +459,356 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>43.10806840827915</v>
+        <v>69.51484977919876</v>
       </c>
       <c r="C2">
-        <v>33.26594970354043</v>
+        <v>63.46734497746343</v>
       </c>
       <c r="D2">
-        <v>22.64239975445662</v>
+        <v>91.88524434300115</v>
       </c>
       <c r="E2">
-        <v>84.48390741759047</v>
+        <v>91.7108592892162</v>
       </c>
       <c r="F2">
-        <v>91.1326530187964</v>
+        <v>7.289962164703933</v>
       </c>
       <c r="G2">
-        <v>21.23763088218998</v>
+        <v>5.746016402324027</v>
       </c>
       <c r="H2">
-        <v>5.377404634166815</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>37.25055371310287</v>
+      </c>
+      <c r="I2">
+        <v>52.40926152414433</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>65.05725463753355</v>
+        <v>95.30599728175876</v>
       </c>
       <c r="C3">
-        <v>73.9922871027369</v>
+        <v>53.89934833124268</v>
       </c>
       <c r="D3">
-        <v>15.39069564730955</v>
+        <v>28.25637115663386</v>
       </c>
       <c r="E3">
-        <v>15.50891403730772</v>
+        <v>18.73841337781926</v>
       </c>
       <c r="F3">
-        <v>64.23789948875803</v>
+        <v>14.69894024430636</v>
       </c>
       <c r="G3">
-        <v>68.41647674210228</v>
+        <v>19.31738307522534</v>
       </c>
       <c r="H3">
-        <v>7.848612036905589</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>64.33050050938249</v>
+      </c>
+      <c r="I3">
+        <v>42.07813628233839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>94.02849713599203</v>
+        <v>45.88966668862595</v>
       </c>
       <c r="C4">
-        <v>9.754482103351958</v>
+        <v>14.59678623513881</v>
       </c>
       <c r="D4">
-        <v>82.56756075276594</v>
+        <v>29.16442911128813</v>
       </c>
       <c r="E4">
-        <v>13.58371927760917</v>
+        <v>76.5600479128078</v>
       </c>
       <c r="F4">
-        <v>42.59089698550211</v>
+        <v>67.73888140950255</v>
       </c>
       <c r="G4">
-        <v>11.93617027648806</v>
+        <v>77.10914310639355</v>
       </c>
       <c r="H4">
-        <v>1.307207828581314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>47.54582371146715</v>
+      </c>
+      <c r="I4">
+        <v>51.22925402503199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>48.07483352684515</v>
+        <v>93.79219410033195</v>
       </c>
       <c r="C5">
-        <v>76.47403170090054</v>
+        <v>74.04529844676389</v>
       </c>
       <c r="D5">
-        <v>1.352748200923437</v>
+        <v>37.92191832691485</v>
       </c>
       <c r="E5">
-        <v>28.12727128029109</v>
+        <v>77.81939526013095</v>
       </c>
       <c r="F5">
-        <v>35.8114196538976</v>
+        <v>95.74668967900965</v>
       </c>
       <c r="G5">
-        <v>34.93997750895124</v>
+        <v>30.15597373527899</v>
       </c>
       <c r="H5">
-        <v>2.402934632131115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>97.81915550113671</v>
+      </c>
+      <c r="I5">
+        <v>72.47151786422386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>56.96677612640024</v>
+        <v>88.08235962817237</v>
       </c>
       <c r="C6">
-        <v>19.75725946174396</v>
+        <v>60.57793132197874</v>
       </c>
       <c r="D6">
-        <v>85.7903877767389</v>
+        <v>96.22474120443752</v>
       </c>
       <c r="E6">
-        <v>72.37427296707378</v>
+        <v>81.92444201286125</v>
       </c>
       <c r="F6">
-        <v>3.71157553993352</v>
+        <v>32.11723903750597</v>
       </c>
       <c r="G6">
-        <v>92.87669288618895</v>
+        <v>3.120603288947255</v>
       </c>
       <c r="H6">
-        <v>33.03210769222312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>19.86571128556199</v>
+      </c>
+      <c r="I6">
+        <v>54.55900396849501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>75.29601774341577</v>
+        <v>91.909920313247</v>
       </c>
       <c r="C7">
-        <v>31.13619672231378</v>
+        <v>46.68697294475732</v>
       </c>
       <c r="D7">
-        <v>21.94606778475665</v>
+        <v>32.26976367182706</v>
       </c>
       <c r="E7">
-        <v>84.60892566791694</v>
+        <v>24.62966304760756</v>
       </c>
       <c r="F7">
-        <v>72.41875743054196</v>
+        <v>5.654133644441095</v>
       </c>
       <c r="G7">
-        <v>23.43000502420859</v>
+        <v>2.160627112470326</v>
       </c>
       <c r="H7">
-        <v>64.93663479740607</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>70.78167090122022</v>
+      </c>
+      <c r="I7">
+        <v>39.15610737651009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>20.80688188587406</v>
+        <v>78.69051419284804</v>
       </c>
       <c r="C8">
-        <v>91.96099541427307</v>
+        <v>18.99765686019606</v>
       </c>
       <c r="D8">
-        <v>93.453525764665</v>
+        <v>29.27341455540127</v>
       </c>
       <c r="E8">
-        <v>12.63436543116127</v>
+        <v>33.44483220819981</v>
       </c>
       <c r="F8">
-        <v>56.96499018360501</v>
+        <v>17.19227009597123</v>
       </c>
       <c r="G8">
-        <v>98.47110136839451</v>
+        <v>91.6884451820612</v>
       </c>
       <c r="H8">
-        <v>17.75371904090697</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>34.44203126251837</v>
+      </c>
+      <c r="I8">
+        <v>43.38988062245657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>52.25514402213462</v>
+        <v>53.83804409910664</v>
       </c>
       <c r="C9">
-        <v>83.06603705869027</v>
+        <v>9.856042590481085</v>
       </c>
       <c r="D9">
-        <v>39.84120071805284</v>
+        <v>31.76829551329539</v>
       </c>
       <c r="E9">
-        <v>89.21463292474979</v>
+        <v>20.67648866340402</v>
       </c>
       <c r="F9">
-        <v>88.72852453697887</v>
+        <v>2.849549801765505</v>
       </c>
       <c r="G9">
-        <v>69.91281138433882</v>
+        <v>91.95875886528188</v>
       </c>
       <c r="H9">
-        <v>62.95541883452713</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>91.68459391541489</v>
+      </c>
+      <c r="I9">
+        <v>43.23311049267848</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>22.02910645562844</v>
+        <v>27.94100757269326</v>
       </c>
       <c r="C10">
-        <v>19.45184413497083</v>
+        <v>64.80608929897242</v>
       </c>
       <c r="D10">
-        <v>42.84332736026317</v>
+        <v>59.59577946634906</v>
       </c>
       <c r="E10">
-        <v>70.52643649526225</v>
+        <v>10.42588979426458</v>
       </c>
       <c r="F10">
-        <v>95.20914985917848</v>
+        <v>98.5126588103567</v>
       </c>
       <c r="G10">
-        <v>68.24850908755836</v>
+        <v>6.026758079995654</v>
       </c>
       <c r="H10">
-        <v>77.95097505416854</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>89.43043853742878</v>
+      </c>
+      <c r="I10">
+        <v>50.96266022286578</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>44.41433402944143</v>
+        <v>68.25971572052282</v>
       </c>
       <c r="C11">
-        <v>96.52046439057159</v>
+        <v>70.56719779359399</v>
       </c>
       <c r="D11">
-        <v>15.22527140783223</v>
+        <v>80.82710903980865</v>
       </c>
       <c r="E11">
-        <v>10.17557976115976</v>
+        <v>13.96108920436</v>
       </c>
       <c r="F11">
-        <v>36.89204897716517</v>
+        <v>3.445337178537911</v>
       </c>
       <c r="G11">
-        <v>56.96986457465728</v>
+        <v>70.06944588876435</v>
       </c>
       <c r="H11">
-        <v>73.03107575695566</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>27.09106303735204</v>
+      </c>
+      <c r="I11">
+        <v>47.74585112327711</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>4.870129485430185</v>
+        <v>23.15428799428855</v>
       </c>
       <c r="C12">
-        <v>80.33808312304409</v>
+        <v>68.36660364166789</v>
       </c>
       <c r="D12">
-        <v>10.00456514719444</v>
+        <v>67.49887006723615</v>
       </c>
       <c r="E12">
-        <v>94.90718983494413</v>
+        <v>15.54568744488598</v>
       </c>
       <c r="F12">
-        <v>1.758829394117778</v>
+        <v>18.25766674005058</v>
       </c>
       <c r="G12">
-        <v>58.35981692731891</v>
+        <v>31.60596077194909</v>
       </c>
       <c r="H12">
-        <v>61.57627303850954</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>37.70600774307977</v>
+      </c>
+      <c r="I12">
+        <v>37.44786920045114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>88.0074886992184</v>
+        <v>2.46527225440899</v>
       </c>
       <c r="C13">
-        <v>74.02999057783919</v>
+        <v>65.52013605529092</v>
       </c>
       <c r="D13">
-        <v>40.38545828323724</v>
+        <v>66.26656316278867</v>
       </c>
       <c r="E13">
-        <v>78.43607710571577</v>
+        <v>8.687046501856432</v>
       </c>
       <c r="F13">
-        <v>42.15860581049854</v>
+        <v>42.28801011634877</v>
       </c>
       <c r="G13">
-        <v>48.28866444280811</v>
+        <v>45.78112624683406</v>
       </c>
       <c r="H13">
-        <v>24.21158311280352</v>
+        <v>10.65059499096352</v>
+      </c>
+      <c r="I13">
+        <v>34.52267847549876</v>
       </c>
     </row>
   </sheetData>
